--- a/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3807617-0A86-428D-8278-C7B36CD46CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C3A04C-4E2A-435B-B5BF-7800B2E58AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{555D9DE1-3E28-426B-9007-9A5E9E3ADAF8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E20A338-92E8-4BB0-8FFE-37016E12B0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="510">
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2007 (Tasa respuesta: 99,91%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="508">
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,1498 +76,1492 @@
     <t>1,18%</t>
   </si>
   <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2015 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36400433-7E12-458D-9AD0-76C3A12DD164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547ACA0F-0B8C-465A-8973-512FF5C9BF7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2307,13 +2301,13 @@
         <v>46910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -2322,13 +2316,13 @@
         <v>29693</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -2337,13 +2331,13 @@
         <v>76603</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2352,13 @@
         <v>1030099</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2373,13 +2367,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2327</v>
@@ -2388,18 +2382,18 @@
         <v>2345212</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2411,13 +2405,13 @@
         <v>9704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2426,13 +2420,13 @@
         <v>22108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2441,10 +2435,10 @@
         <v>31811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>67</v>
@@ -2666,13 +2660,13 @@
         <v>1691486</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -2681,13 +2675,13 @@
         <v>1586613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3200</v>
@@ -2696,13 +2690,13 @@
         <v>3278100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,10 +2731,10 @@
         <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2749,13 +2743,13 @@
         <v>13506</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2764,13 @@
         <v>25645</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2785,7 +2779,7 @@
         <v>26288</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>117</v>
@@ -2842,7 +2836,7 @@
         <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>426</v>
@@ -2851,13 +2845,13 @@
         <v>445334</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2866,13 @@
         <v>237866</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -2887,13 +2881,13 @@
         <v>217179</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>433</v>
@@ -2902,13 +2896,13 @@
         <v>455045</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2917,13 @@
         <v>44470</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2938,13 +2932,13 @@
         <v>16533</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2953,13 +2947,13 @@
         <v>61003</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2968,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>451</v>
@@ -2989,13 +2983,13 @@
         <v>475413</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>978</v>
@@ -3004,13 +2998,13 @@
         <v>1026821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3021,13 @@
         <v>28153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -3042,10 +3036,10 @@
         <v>44795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>152</v>
@@ -3060,10 +3054,10 @@
         <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3072,13 @@
         <v>137767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -3093,13 +3087,13 @@
         <v>172369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>303</v>
@@ -3108,13 +3102,13 @@
         <v>310136</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3123,13 @@
         <v>1314131</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>1498</v>
@@ -3144,13 +3138,13 @@
         <v>1539200</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>2790</v>
@@ -3159,13 +3153,13 @@
         <v>2853331</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3174,13 @@
         <v>1523094</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>1472</v>
@@ -3195,10 +3189,10 @@
         <v>1497868</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>177</v>
@@ -3261,13 +3255,13 @@
         <v>392756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3276,13 @@
         <v>3272994</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3295</v>
@@ -3297,13 +3291,13 @@
         <v>3377138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6505</v>
@@ -3312,18 +3306,18 @@
         <v>6650132</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC84C307-8019-4B26-86EA-9573FE298CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E509651-D7EB-4D7A-AB49-40751A7A23F9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,7 +3353,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3466,13 +3460,13 @@
         <v>10901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3481,10 +3475,10 @@
         <v>26214</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>196</v>
@@ -3499,7 +3493,7 @@
         <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>198</v>
@@ -3676,7 +3670,7 @@
         <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3685,13 +3679,13 @@
         <v>46043</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3700,13 +3694,13 @@
         <v>97250</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3715,13 @@
         <v>966382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1242</v>
@@ -3736,13 +3730,13 @@
         <v>1331653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2142</v>
@@ -3751,18 +3745,18 @@
         <v>2298035</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3774,13 +3768,13 @@
         <v>15139</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3789,13 +3783,13 @@
         <v>13311</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3804,13 +3798,13 @@
         <v>28450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3819,13 @@
         <v>81626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -3840,13 +3834,13 @@
         <v>116037</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -3855,13 +3849,13 @@
         <v>197663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3870,13 @@
         <v>710743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>654</v>
@@ -3891,13 +3885,13 @@
         <v>701190</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>1325</v>
@@ -3906,13 +3900,13 @@
         <v>1411933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3921,13 @@
         <v>979076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>726</v>
@@ -3942,13 +3936,13 @@
         <v>780669</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>1652</v>
@@ -3957,13 +3951,13 @@
         <v>1759744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3972,13 @@
         <v>172420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -3993,13 +3987,13 @@
         <v>140546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -4008,13 +4002,13 @@
         <v>312966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4023,13 @@
         <v>1959004</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1630</v>
@@ -4044,13 +4038,13 @@
         <v>1751752</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3482</v>
@@ -4059,13 +4053,13 @@
         <v>3710756</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4076,13 @@
         <v>4369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4097,10 +4091,10 @@
         <v>6017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>279</v>
@@ -4118,7 +4112,7 @@
         <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4127,13 @@
         <v>31231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4148,7 +4142,7 @@
         <v>30161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>286</v>
@@ -4166,10 +4160,10 @@
         <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>164347</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -4199,13 +4193,13 @@
         <v>180910</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -4214,13 +4208,13 @@
         <v>345257</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4229,13 @@
         <v>231343</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -4250,13 +4244,13 @@
         <v>212603</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -4265,13 +4259,13 @@
         <v>443945</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4280,13 @@
         <v>46951</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -4301,10 +4295,10 @@
         <v>27863</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>313</v>
@@ -4337,13 +4331,13 @@
         <v>478241</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4352,13 +4346,13 @@
         <v>457553</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>847</v>
@@ -4367,13 +4361,13 @@
         <v>935794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +4387,10 @@
         <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -4405,13 +4399,13 @@
         <v>45541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -4420,13 +4414,13 @@
         <v>75950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,7 +4471,7 @@
         <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4486,13 @@
         <v>1329112</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>1440</v>
@@ -4507,13 +4501,13 @@
         <v>1547197</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>2681</v>
@@ -4522,13 +4516,13 @@
         <v>2876309</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4537,13 @@
         <v>1536286</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>1305</v>
@@ -4558,13 +4552,13 @@
         <v>1409190</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>2753</v>
@@ -4573,10 +4567,10 @@
         <v>2945476</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>347</v>
@@ -4627,10 +4621,10 @@
         <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4639,13 @@
         <v>3403627</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3283</v>
@@ -4660,13 +4654,13 @@
         <v>3540958</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6471</v>
@@ -4675,18 +4669,18 @@
         <v>6944585</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4705,7 +4699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4017706F-6C57-4399-BC0D-C52588B24D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D94555-621D-49CB-9BE5-301AAF306125}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4722,7 +4716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4829,13 +4823,13 @@
         <v>7842</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4844,13 +4838,13 @@
         <v>10422</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>359</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4859,13 +4853,13 @@
         <v>18264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4874,13 @@
         <v>20252</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -4895,13 +4889,13 @@
         <v>53027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -4952,7 +4946,7 @@
         <v>375</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="M6" s="7">
         <v>616</v>
@@ -4961,13 +4955,13 @@
         <v>654441</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4976,13 @@
         <v>341644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>334</v>
@@ -4997,13 +4991,13 @@
         <v>370767</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>382</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>677</v>
@@ -5012,13 +5006,13 @@
         <v>712411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5027,13 @@
         <v>131034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -5048,13 +5042,13 @@
         <v>153330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -5063,10 +5057,10 @@
         <v>284364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>394</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>395</v>
@@ -5084,13 +5078,13 @@
         <v>750223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5099,13 +5093,13 @@
         <v>992536</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1648</v>
@@ -5114,18 +5108,18 @@
         <v>1742759</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5137,13 +5131,13 @@
         <v>9428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>396</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5152,10 +5146,10 @@
         <v>16829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>67</v>
@@ -5170,10 +5164,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5182,13 @@
         <v>55528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -5203,13 +5197,13 @@
         <v>68074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -5218,13 +5212,13 @@
         <v>123603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>409</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5233,13 @@
         <v>708940</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>745</v>
@@ -5254,13 +5248,13 @@
         <v>778095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>415</v>
+        <v>42</v>
       </c>
       <c r="M12" s="7">
         <v>1413</v>
@@ -5269,13 +5263,13 @@
         <v>1487035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5284,13 @@
         <v>999093</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>801</v>
@@ -5305,13 +5299,13 @@
         <v>831777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>1742</v>
@@ -5320,13 +5314,13 @@
         <v>1830870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5335,13 @@
         <v>294894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7">
         <v>277</v>
@@ -5356,13 +5350,13 @@
         <v>287886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M14" s="7">
         <v>551</v>
@@ -5371,13 +5365,13 @@
         <v>582781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5386,13 @@
         <v>2067884</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1902</v>
@@ -5407,13 +5401,13 @@
         <v>1982662</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3846</v>
@@ -5422,13 +5416,13 @@
         <v>4050546</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5439,13 @@
         <v>4121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5460,13 +5454,13 @@
         <v>13243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>439</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5475,13 +5469,13 @@
         <v>17364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5490,13 @@
         <v>24546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5511,13 +5505,13 @@
         <v>26848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -5526,13 +5520,13 @@
         <v>51394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5541,13 @@
         <v>199730</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -5562,13 +5556,13 @@
         <v>220730</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>396</v>
@@ -5577,13 +5571,13 @@
         <v>420459</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5592,13 @@
         <v>250219</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -5613,13 +5607,13 @@
         <v>228944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -5628,13 +5622,13 @@
         <v>479163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5643,13 @@
         <v>63726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -5664,13 +5658,13 @@
         <v>57326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -5679,13 +5673,13 @@
         <v>121052</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5694,13 @@
         <v>542342</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>524</v>
@@ -5715,13 +5709,13 @@
         <v>547091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1021</v>
@@ -5730,13 +5724,13 @@
         <v>1089432</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5747,13 @@
         <v>21392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>473</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5771,10 +5765,10 @@
         <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5783,13 +5777,13 @@
         <v>61886</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,10 +5801,10 @@
         <v>477</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -5822,7 +5816,7 @@
         <v>368</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>480</v>
@@ -5834,13 +5828,13 @@
         <v>248275</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5849,13 @@
         <v>1158120</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H24" s="7">
         <v>1317</v>
@@ -5870,13 +5864,13 @@
         <v>1403815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M24" s="7">
         <v>2425</v>
@@ -5885,13 +5879,13 @@
         <v>2561935</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5900,13 @@
         <v>1590956</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>32</v>
       </c>
       <c r="H25" s="7">
         <v>1352</v>
@@ -5921,13 +5915,13 @@
         <v>1431488</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>2865</v>
@@ -5936,13 +5930,13 @@
         <v>3022444</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5951,13 @@
         <v>489654</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H26" s="7">
         <v>472</v>
@@ -5972,13 +5966,13 @@
         <v>498543</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>935</v>
@@ -5987,13 +5981,13 @@
         <v>988196</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6002,13 @@
         <v>3360448</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3316</v>
@@ -6023,13 +6017,13 @@
         <v>3522289</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6515</v>
@@ -6038,18 +6032,18 @@
         <v>6882737</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C3A04C-4E2A-435B-B5BF-7800B2E58AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EB181E-02DE-41CE-B23D-4074B65CD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E20A338-92E8-4BB0-8FFE-37016E12B0A0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{916201B8-95EF-4BDE-BF02-278144110542}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -76,1474 +76,1498 @@
     <t>1,18%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>39,75%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>3,19%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>36,08%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
     <t>37,22%</t>
   </si>
   <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>47,34%</t>
   </si>
   <si>
-    <t>45,5%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>42,2%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>14,15%</t>
@@ -1558,10 +1582,10 @@
     <t>14,36%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547ACA0F-0B8C-465A-8973-512FF5C9BF7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE10F62-61DC-45D5-90FE-360BC733F918}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2731,10 +2755,10 @@
         <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2743,13 +2767,13 @@
         <v>13506</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2788,13 @@
         <v>25645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2779,13 +2803,13 @@
         <v>26288</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2794,13 +2818,13 @@
         <v>51933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2839,13 @@
         <v>237102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>197</v>
@@ -2830,13 +2854,13 @@
         <v>208233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>426</v>
@@ -2845,13 +2869,13 @@
         <v>445334</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2890,13 @@
         <v>237866</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -2881,13 +2905,13 @@
         <v>217179</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>433</v>
@@ -2896,13 +2920,13 @@
         <v>455045</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2941,13 @@
         <v>44470</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2932,13 +2956,13 @@
         <v>16533</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2947,10 +2971,10 @@
         <v>61003</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>148</v>
@@ -3021,13 +3045,13 @@
         <v>28153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -3036,10 +3060,10 @@
         <v>44795</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>152</v>
@@ -3054,10 +3078,10 @@
         <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3096,13 @@
         <v>137767</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -3087,13 +3111,13 @@
         <v>172369</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>303</v>
@@ -3102,7 +3126,7 @@
         <v>310136</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>161</v>
@@ -3336,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E509651-D7EB-4D7A-AB49-40751A7A23F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F125F0-0BF4-4A1C-B944-61C9395D347A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3478,10 +3502,10 @@
         <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3490,13 +3514,13 @@
         <v>37114</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3535,13 @@
         <v>124385</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>167</v>
@@ -3526,13 +3550,13 @@
         <v>178380</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>280</v>
@@ -3541,13 +3565,13 @@
         <v>302765</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3586,13 @@
         <v>454021</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>624</v>
@@ -3577,13 +3601,13 @@
         <v>665098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>1045</v>
@@ -3592,13 +3616,13 @@
         <v>1119119</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3637,13 @@
         <v>325868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>385</v>
@@ -3628,13 +3652,13 @@
         <v>415919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>694</v>
@@ -3643,13 +3667,13 @@
         <v>741787</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3688,10 @@
         <v>51207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>102</v>
@@ -3679,13 +3703,13 @@
         <v>46043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3694,13 +3718,13 @@
         <v>97250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3792,13 @@
         <v>15139</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3783,13 +3807,13 @@
         <v>13311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3798,13 +3822,13 @@
         <v>28450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3849,7 @@
         <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -3834,13 +3858,13 @@
         <v>116037</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -3849,7 +3873,7 @@
         <v>197663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>247</v>
@@ -3987,13 +4011,13 @@
         <v>140546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -4002,13 +4026,13 @@
         <v>312966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4100,13 @@
         <v>4369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4091,13 +4115,13 @@
         <v>6017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4106,10 +4130,10 @@
         <v>10385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>282</v>
@@ -4127,13 +4151,13 @@
         <v>31231</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4142,13 +4166,13 @@
         <v>30161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -4157,10 +4181,10 @@
         <v>61392</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>289</v>
@@ -4390,7 +4414,7 @@
         <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -4399,7 +4423,7 @@
         <v>45541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>320</v>
@@ -4414,13 +4438,13 @@
         <v>75950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4459,13 @@
         <v>237242</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>299</v>
@@ -4450,13 +4474,13 @@
         <v>324578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>514</v>
@@ -4465,13 +4489,13 @@
         <v>561819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4510,13 @@
         <v>1329112</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>1440</v>
@@ -4501,13 +4525,13 @@
         <v>1547197</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>2681</v>
@@ -4516,13 +4540,13 @@
         <v>2876309</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4561,13 @@
         <v>1536286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>1305</v>
@@ -4552,13 +4576,13 @@
         <v>1409190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>2753</v>
@@ -4567,13 +4591,13 @@
         <v>2945476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4612,13 @@
         <v>270579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>199</v>
@@ -4603,13 +4627,13 @@
         <v>214452</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>455</v>
@@ -4618,13 +4642,13 @@
         <v>485031</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D94555-621D-49CB-9BE5-301AAF306125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091D2F63-8A44-4D17-B945-0C0060E5A7B6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4716,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4823,13 +4847,13 @@
         <v>7842</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4838,13 +4862,13 @@
         <v>10422</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4853,13 +4877,13 @@
         <v>18264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4898,13 @@
         <v>20252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -4889,13 +4913,13 @@
         <v>53027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -4904,13 +4928,13 @@
         <v>73279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4949,13 @@
         <v>249451</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
         <v>360</v>
@@ -4940,13 +4964,13 @@
         <v>404990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>616</v>
@@ -4955,13 +4979,13 @@
         <v>654441</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5000,13 @@
         <v>341644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H7" s="7">
         <v>334</v>
@@ -4991,13 +5015,13 @@
         <v>370767</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M7" s="7">
         <v>677</v>
@@ -5006,13 +5030,13 @@
         <v>712411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5051,13 @@
         <v>131034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -5042,13 +5066,13 @@
         <v>153330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -5057,13 +5081,13 @@
         <v>284364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5155,13 @@
         <v>9428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5146,13 +5170,13 @@
         <v>16829</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5161,13 +5185,13 @@
         <v>26258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5206,13 @@
         <v>55528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -5197,13 +5221,13 @@
         <v>68074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -5212,13 +5236,13 @@
         <v>123603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5257,13 @@
         <v>708940</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>745</v>
@@ -5248,13 +5272,13 @@
         <v>778095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>1413</v>
@@ -5263,13 +5287,13 @@
         <v>1487035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5308,13 @@
         <v>999093</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>801</v>
@@ -5299,13 +5323,13 @@
         <v>831777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>1742</v>
@@ -5314,13 +5338,13 @@
         <v>1830870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5359,13 @@
         <v>294894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>277</v>
@@ -5350,13 +5374,13 @@
         <v>287886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>551</v>
@@ -5365,13 +5389,13 @@
         <v>582781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5463,13 @@
         <v>4121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5454,13 +5478,13 @@
         <v>13243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5469,13 +5493,13 @@
         <v>17364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5514,13 @@
         <v>24546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5505,13 +5529,13 @@
         <v>26848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -5520,13 +5544,13 @@
         <v>51394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5565,13 @@
         <v>199730</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -5556,13 +5580,13 @@
         <v>220730</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>256</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M18" s="7">
         <v>396</v>
@@ -5571,13 +5595,13 @@
         <v>420459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5616,13 @@
         <v>250219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -5607,13 +5631,13 @@
         <v>228944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -5622,13 +5646,13 @@
         <v>479163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5667,13 @@
         <v>63726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -5658,13 +5682,13 @@
         <v>57326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -5673,13 +5697,13 @@
         <v>121052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,10 +5771,10 @@
         <v>21392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>66</v>
@@ -5765,10 +5789,10 @@
         <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5777,13 +5801,13 @@
         <v>61886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5822,13 @@
         <v>100326</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>477</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -5813,13 +5837,13 @@
         <v>147949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -5828,13 +5852,13 @@
         <v>248275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>490</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5873,13 @@
         <v>1158120</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>1317</v>
@@ -5864,13 +5888,13 @@
         <v>1403815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>390</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>2425</v>
@@ -5879,13 +5903,13 @@
         <v>2561935</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5924,13 @@
         <v>1590956</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>32</v>
+        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>1352</v>
@@ -5915,13 +5939,13 @@
         <v>1431488</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>2865</v>
@@ -5930,13 +5954,13 @@
         <v>3022444</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5975,13 @@
         <v>489654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>472</v>
@@ -5966,13 +5990,13 @@
         <v>498543</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>935</v>
@@ -5981,13 +6005,13 @@
         <v>988196</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EB181E-02DE-41CE-B23D-4074B65CD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5704AD5-3D83-48FC-A40E-D4B35D485C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{916201B8-95EF-4BDE-BF02-278144110542}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D65B0A25-3220-4BF6-B17C-75C89F04ABBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="510">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -76,1516 +76,1498 @@
     <t>1,18%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,98%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>42,37%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE10F62-61DC-45D5-90FE-360BC733F918}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60EDF5D-1A91-4481-8E32-0063D06C5F00}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2325,13 +2307,13 @@
         <v>46910</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -2340,13 +2322,13 @@
         <v>29693</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -2355,13 +2337,13 @@
         <v>76603</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2358,13 @@
         <v>1030099</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2391,13 +2373,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2327</v>
@@ -2406,18 +2388,18 @@
         <v>2345212</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2429,13 +2411,13 @@
         <v>9704</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2444,13 +2426,13 @@
         <v>22108</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2459,10 +2441,10 @@
         <v>31811</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>67</v>
@@ -2684,13 +2666,13 @@
         <v>1691486</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -2699,13 +2681,13 @@
         <v>1586613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3200</v>
@@ -2714,13 +2696,13 @@
         <v>3278100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2785,13 @@
         <v>26288</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2818,13 +2800,13 @@
         <v>51933</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2821,13 @@
         <v>237102</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>197</v>
@@ -2854,13 +2836,13 @@
         <v>208233</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>426</v>
@@ -2869,13 +2851,13 @@
         <v>445334</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2872,13 @@
         <v>237866</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -2905,13 +2887,13 @@
         <v>217179</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>433</v>
@@ -2920,13 +2902,13 @@
         <v>455045</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2923,13 @@
         <v>44470</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2956,13 +2938,13 @@
         <v>16533</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -2971,13 +2953,13 @@
         <v>61003</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2974,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>451</v>
@@ -3007,13 +2989,13 @@
         <v>475413</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>978</v>
@@ -3022,13 +3004,13 @@
         <v>1026821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,10 +3027,10 @@
         <v>28153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>149</v>
@@ -3078,7 +3060,7 @@
         <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>154</v>
@@ -3114,10 +3096,10 @@
         <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>303</v>
@@ -3126,13 +3108,13 @@
         <v>310136</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3129,13 @@
         <v>1314131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>1498</v>
@@ -3162,13 +3144,13 @@
         <v>1539200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>2790</v>
@@ -3177,13 +3159,13 @@
         <v>2853331</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3180,13 @@
         <v>1523094</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>1472</v>
@@ -3213,10 +3195,10 @@
         <v>1497868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>177</v>
@@ -3279,13 +3261,13 @@
         <v>392756</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3282,13 @@
         <v>3272994</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3295</v>
@@ -3315,13 +3297,13 @@
         <v>3377138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6505</v>
@@ -3330,18 +3312,18 @@
         <v>6650132</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F125F0-0BF4-4A1C-B944-61C9395D347A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7224D2-4C2A-4326-B87E-FF1BA5041CFA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3484,13 +3466,13 @@
         <v>10901</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3499,13 +3481,13 @@
         <v>26214</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3514,13 +3496,13 @@
         <v>37114</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3517,13 @@
         <v>124385</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>167</v>
@@ -3550,13 +3532,13 @@
         <v>178380</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>280</v>
@@ -3565,13 +3547,13 @@
         <v>302765</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3568,13 @@
         <v>454021</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>624</v>
@@ -3601,13 +3583,13 @@
         <v>665098</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>1045</v>
@@ -3616,13 +3598,13 @@
         <v>1119119</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3619,13 @@
         <v>325868</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>385</v>
@@ -3652,13 +3634,13 @@
         <v>415919</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>694</v>
@@ -3667,13 +3649,13 @@
         <v>741787</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3670,13 @@
         <v>51207</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3703,13 +3685,13 @@
         <v>46043</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3739,13 +3721,13 @@
         <v>966382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1242</v>
@@ -3754,13 +3736,13 @@
         <v>1331653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2142</v>
@@ -3769,18 +3751,18 @@
         <v>2298035</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3798,7 +3780,7 @@
         <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3807,13 +3789,13 @@
         <v>13311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3825,10 +3807,10 @@
         <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3825,13 @@
         <v>81626</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -3858,13 +3840,13 @@
         <v>116037</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -3873,13 +3855,13 @@
         <v>197663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3876,13 @@
         <v>710743</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>654</v>
@@ -3909,13 +3891,13 @@
         <v>701190</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>1325</v>
@@ -3924,13 +3906,13 @@
         <v>1411933</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3927,13 @@
         <v>979076</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>726</v>
@@ -3960,13 +3942,13 @@
         <v>780669</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>1652</v>
@@ -3975,13 +3957,13 @@
         <v>1759744</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3978,13 @@
         <v>172420</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -4011,13 +3993,13 @@
         <v>140546</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -4026,13 +4008,13 @@
         <v>312966</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4029,13 @@
         <v>1959004</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1630</v>
@@ -4062,13 +4044,13 @@
         <v>1751752</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3482</v>
@@ -4077,13 +4059,13 @@
         <v>3710756</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4082,13 @@
         <v>4369</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4115,13 +4097,13 @@
         <v>6017</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4130,13 +4112,13 @@
         <v>10385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4133,13 @@
         <v>31231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4166,13 +4148,13 @@
         <v>30161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -4181,13 +4163,13 @@
         <v>61392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4184,13 @@
         <v>164347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -4217,13 +4199,13 @@
         <v>180910</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -4232,13 +4214,13 @@
         <v>345257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4235,13 @@
         <v>231343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -4268,13 +4250,13 @@
         <v>212603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -4283,13 +4265,13 @@
         <v>443945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4286,13 @@
         <v>46951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -4319,10 +4301,10 @@
         <v>27863</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>313</v>
@@ -4355,13 +4337,13 @@
         <v>478241</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4370,13 +4352,13 @@
         <v>457553</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>847</v>
@@ -4385,13 +4367,13 @@
         <v>935794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +4393,10 @@
         <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -4426,10 +4408,10 @@
         <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -4438,13 +4420,13 @@
         <v>75950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4441,13 @@
         <v>237242</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>299</v>
@@ -4474,13 +4456,13 @@
         <v>324578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>514</v>
@@ -4489,13 +4471,13 @@
         <v>561819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4492,13 @@
         <v>1329112</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>1440</v>
@@ -4525,13 +4507,13 @@
         <v>1547197</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>2681</v>
@@ -4540,13 +4522,13 @@
         <v>2876309</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4543,13 @@
         <v>1536286</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>1305</v>
@@ -4576,13 +4558,13 @@
         <v>1409190</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>2753</v>
@@ -4591,13 +4573,13 @@
         <v>2945476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4594,13 @@
         <v>270579</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>199</v>
@@ -4627,13 +4609,13 @@
         <v>214452</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>455</v>
@@ -4642,13 +4624,13 @@
         <v>485031</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4645,13 @@
         <v>3403627</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3283</v>
@@ -4678,13 +4660,13 @@
         <v>3540958</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6471</v>
@@ -4693,18 +4675,18 @@
         <v>6944585</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091D2F63-8A44-4D17-B945-0C0060E5A7B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87208502-2DB5-44BC-9F91-0C724293E8B6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,7 +4722,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4847,13 +4829,13 @@
         <v>7842</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4862,13 +4844,13 @@
         <v>10422</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4877,13 +4859,13 @@
         <v>18264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4880,13 @@
         <v>20252</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -4913,13 +4895,13 @@
         <v>53027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -4928,13 +4910,13 @@
         <v>73279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4931,13 @@
         <v>249451</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H6" s="7">
         <v>360</v>
@@ -4964,13 +4946,13 @@
         <v>404990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>616</v>
@@ -4979,13 +4961,13 @@
         <v>654441</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4982,13 @@
         <v>341644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H7" s="7">
         <v>334</v>
@@ -5015,13 +4997,13 @@
         <v>370767</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M7" s="7">
         <v>677</v>
@@ -5030,13 +5012,13 @@
         <v>712411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5033,13 @@
         <v>131034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -5066,13 +5048,13 @@
         <v>153330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -5081,13 +5063,13 @@
         <v>284364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5084,13 @@
         <v>750223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5117,13 +5099,13 @@
         <v>992536</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1648</v>
@@ -5132,18 +5114,18 @@
         <v>1742759</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5155,13 +5137,13 @@
         <v>9428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5170,13 +5152,13 @@
         <v>16829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5185,13 +5167,13 @@
         <v>26258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5188,13 @@
         <v>55528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -5221,13 +5203,13 @@
         <v>68074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -5236,13 +5218,13 @@
         <v>123603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5239,13 @@
         <v>708940</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>745</v>
@@ -5272,13 +5254,13 @@
         <v>778095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>1413</v>
@@ -5287,13 +5269,13 @@
         <v>1487035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5290,13 @@
         <v>999093</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H13" s="7">
         <v>801</v>
@@ -5323,13 +5305,13 @@
         <v>831777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>1742</v>
@@ -5338,13 +5320,13 @@
         <v>1830870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5341,13 @@
         <v>294894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H14" s="7">
         <v>277</v>
@@ -5374,13 +5356,13 @@
         <v>287886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>551</v>
@@ -5389,13 +5371,13 @@
         <v>582781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5392,13 @@
         <v>2067884</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1902</v>
@@ -5425,13 +5407,13 @@
         <v>1982662</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3846</v>
@@ -5440,13 +5422,13 @@
         <v>4050546</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5445,13 @@
         <v>4121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5478,13 +5460,13 @@
         <v>13243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5493,13 +5475,13 @@
         <v>17364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5496,13 @@
         <v>24546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5529,13 +5511,13 @@
         <v>26848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>452</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -5544,13 +5526,13 @@
         <v>51394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5547,13 @@
         <v>199730</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -5580,13 +5562,13 @@
         <v>220730</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>256</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>396</v>
@@ -5595,13 +5577,13 @@
         <v>420459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>462</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5598,13 @@
         <v>250219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -5631,13 +5613,13 @@
         <v>228944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -5646,13 +5628,13 @@
         <v>479163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5649,13 @@
         <v>63726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -5682,13 +5664,13 @@
         <v>57326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -5697,13 +5679,13 @@
         <v>121052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5700,13 @@
         <v>542342</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>524</v>
@@ -5733,13 +5715,13 @@
         <v>547091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>1021</v>
@@ -5748,13 +5730,13 @@
         <v>1089432</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5753,13 @@
         <v>21392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5789,10 +5771,10 @@
         <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5801,13 +5783,13 @@
         <v>61886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>485</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5804,13 @@
         <v>100326</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>477</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -5837,13 +5819,13 @@
         <v>147949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -5852,13 +5834,13 @@
         <v>248275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5855,13 @@
         <v>1158120</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H24" s="7">
         <v>1317</v>
@@ -5888,13 +5870,13 @@
         <v>1403815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>488</v>
       </c>
       <c r="M24" s="7">
         <v>2425</v>
@@ -5903,13 +5885,13 @@
         <v>2561935</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5906,13 @@
         <v>1590956</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H25" s="7">
         <v>1352</v>
@@ -5939,13 +5921,13 @@
         <v>1431488</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>496</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>2865</v>
@@ -5954,13 +5936,13 @@
         <v>3022444</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5957,13 @@
         <v>489654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H26" s="7">
         <v>472</v>
@@ -5990,13 +5972,13 @@
         <v>498543</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>935</v>
@@ -6005,13 +5987,13 @@
         <v>988196</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6008,13 @@
         <v>3360448</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3316</v>
@@ -6041,13 +6023,13 @@
         <v>3522289</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6515</v>
@@ -6056,18 +6038,18 @@
         <v>6882737</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5704AD5-3D83-48FC-A40E-D4B35D485C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{604EA58C-06DA-48A0-BF76-165DD2A8EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D65B0A25-3220-4BF6-B17C-75C89F04ABBF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{30C3C9FC-F6C9-45CB-9434-52A5BDFB8940}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1979,7 +1979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60EDF5D-1A91-4481-8E32-0063D06C5F00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F2315-E4DF-4947-B8EB-4B70007A96A8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3177,7 +3177,7 @@
         <v>1493</v>
       </c>
       <c r="D25" s="7">
-        <v>1523094</v>
+        <v>1523093</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>173</v>
@@ -3279,7 +3279,7 @@
         <v>3210</v>
       </c>
       <c r="D27" s="7">
-        <v>3272994</v>
+        <v>3272993</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>57</v>
@@ -3342,7 +3342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7224D2-4C2A-4326-B87E-FF1BA5041CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5DFAEB-910D-40BD-B5D4-FF1EB9F8E97A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4262,7 +4262,7 @@
         <v>407</v>
       </c>
       <c r="N19" s="7">
-        <v>443945</v>
+        <v>443946</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>306</v>
@@ -4364,7 +4364,7 @@
         <v>847</v>
       </c>
       <c r="N21" s="7">
-        <v>935794</v>
+        <v>935795</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>57</v>
@@ -4705,7 +4705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87208502-2DB5-44BC-9F91-0C724293E8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3EEB39-4BC9-4DD6-87EC-FF739836B7DE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5317,7 +5317,7 @@
         <v>1742</v>
       </c>
       <c r="N13" s="7">
-        <v>1830870</v>
+        <v>1830869</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>424</v>
@@ -5368,7 +5368,7 @@
         <v>551</v>
       </c>
       <c r="N14" s="7">
-        <v>582781</v>
+        <v>582780</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>433</v>
@@ -5389,7 +5389,7 @@
         <v>1944</v>
       </c>
       <c r="D15" s="7">
-        <v>2067884</v>
+        <v>2067883</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>57</v>
@@ -5419,7 +5419,7 @@
         <v>3846</v>
       </c>
       <c r="N15" s="7">
-        <v>4050546</v>
+        <v>4050545</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>57</v>
